--- a/SC Projections.xlsx
+++ b/SC Projections.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="inventory" sheetId="3" r:id="rId1"/>
-    <sheet name="location_priority" sheetId="1" r:id="rId2"/>
-    <sheet name="service_priority" sheetId="2" r:id="rId3"/>
+    <sheet name="intake_data" sheetId="3" r:id="rId1"/>
+    <sheet name="output_data" sheetId="5" r:id="rId2"/>
+    <sheet name="reference" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>location_priority</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>CB</t>
   </si>
@@ -43,12 +37,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>service_id</t>
-  </si>
-  <si>
-    <t>service_priority</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
@@ -64,10 +52,58 @@
     <t>intersite_received_date</t>
   </si>
   <si>
-    <t>start_date</t>
-  </si>
-  <si>
     <t>stone_count</t>
+  </si>
+  <si>
+    <t>tat_target_date</t>
+  </si>
+  <si>
+    <t>current_location</t>
+  </si>
+  <si>
+    <t>intake_location</t>
+  </si>
+  <si>
+    <t>service_cd</t>
+  </si>
+  <si>
+    <t>erd_target_date</t>
+  </si>
+  <si>
+    <t>tat_start_date</t>
+  </si>
+  <si>
+    <t>tat_target_days</t>
+  </si>
+  <si>
+    <t>erd_target_days</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>holiday_date</t>
+  </si>
+  <si>
+    <t>week_end</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>unit_ratio</t>
+  </si>
+  <si>
+    <t>stone_units</t>
+  </si>
+  <si>
+    <t>production_date</t>
+  </si>
+  <si>
+    <t>output_capacity</t>
+  </si>
+  <si>
+    <t>dd_mix</t>
   </si>
 </sst>
 </file>
@@ -91,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +139,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,15 +171,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,13 +207,67 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -171,13 +278,7 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -196,20 +297,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Inventory_data" displayName="Inventory_data" ref="A1:I12" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="10" name="start_date" dataDxfId="2"/>
-    <tableColumn id="2" name="service_request_date" dataDxfId="6"/>
-    <tableColumn id="3" name="intersite_received_date" dataDxfId="0"/>
-    <tableColumn id="1" name="intake_date" dataDxfId="1"/>
-    <tableColumn id="5" name="service_id"/>
-    <tableColumn id="7" name="location_id"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Inventory_data" displayName="Inventory_data" ref="A1:K12" totalsRowShown="0">
+  <autoFilter ref="A1:K12"/>
+  <sortState ref="A2:M13">
+    <sortCondition ref="J2:J13"/>
+    <sortCondition ref="A2:A13"/>
+    <sortCondition ref="B2:B13"/>
+    <sortCondition ref="K2:K13"/>
+    <sortCondition ref="D2:D13"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="10" name="tat_start_date" dataDxfId="11"/>
+    <tableColumn id="2" name="service_request_date" dataDxfId="8"/>
+    <tableColumn id="3" name="intersite_received_date" dataDxfId="10"/>
+    <tableColumn id="1" name="intake_date" dataDxfId="9"/>
+    <tableColumn id="5" name="service_cd"/>
+    <tableColumn id="7" name="intake_location"/>
+    <tableColumn id="11" name="current_location"/>
     <tableColumn id="6" name="stone_count" dataDxfId="5"/>
-    <tableColumn id="9" name="service_priority" dataDxfId="4" dataCellStyle="Calculation">
-      <calculatedColumnFormula>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</calculatedColumnFormula>
+    <tableColumn id="13" name="stone_units" dataDxfId="6" dataCellStyle="Calculation">
+      <calculatedColumnFormula>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="location_priority" dataDxfId="3" dataCellStyle="Calculation">
-      <calculatedColumnFormula>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</calculatedColumnFormula>
+    <tableColumn id="4" name="tat_target_date" dataDxfId="0" dataCellStyle="Calculation">
+      <calculatedColumnFormula>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="erd_target_date" dataDxfId="7" dataCellStyle="Calculation">
+      <calculatedColumnFormula>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -217,22 +330,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="loc_priority" displayName="loc_priority" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="location_id"/>
-    <tableColumn id="2" name="location_priority"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="production_date" dataDxfId="4"/>
+    <tableColumn id="5" name="current_location" dataDxfId="1"/>
+    <tableColumn id="2" name="output_capacity"/>
+    <tableColumn id="3" name="dd_mix" dataDxfId="3"/>
+    <tableColumn id="4" name="stone_units" dataDxfId="2">
+      <calculatedColumnFormula>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="service_priority" displayName="service_priority" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tat_target_days" displayName="tat_target_days" ref="B2:C5" totalsRowShown="0">
+  <autoFilter ref="B2:C5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="service_id"/>
-    <tableColumn id="2" name="service_priority"/>
+    <tableColumn id="1" name="current_location"/>
+    <tableColumn id="2" name="tat_target_days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="erd_target_days" displayName="erd_target_days" ref="E2:F5" totalsRowShown="0">
+  <autoFilter ref="E2:F5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="intake_location"/>
+    <tableColumn id="2" name="erd_target_days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="holiday" displayName="holiday" ref="H2:I4" totalsRowShown="0">
+  <autoFilter ref="H2:I4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="site_name"/>
+    <tableColumn id="2" name="holiday_date"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="weekend" displayName="weekend" ref="K2:L5" totalsRowShown="0">
+  <autoFilter ref="K2:L5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="site_name"/>
+    <tableColumn id="2" name="week_end"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="stone_units" displayName="stone_units" ref="N2:O4" totalsRowShown="0">
+  <autoFilter ref="N2:O4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="service"/>
+    <tableColumn id="2" name="unit_ratio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,289 +663,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>43749</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43745</v>
+      </c>
+      <c r="C2" s="13">
+        <v>43749</v>
+      </c>
+      <c r="D2" s="13">
+        <v>43745</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>875</v>
+      </c>
+      <c r="I2" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>437.5</v>
+      </c>
+      <c r="J2" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43753</v>
+      </c>
+      <c r="K2" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43747</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="9">
         <v>43745</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="9">
         <v>43747</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="9">
         <v>43742</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>2500</v>
       </c>
-      <c r="H2" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="I3" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>1250</v>
+      </c>
+      <c r="J3" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43749</v>
+      </c>
+      <c r="K3" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43746</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>43746</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>43746</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H3" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43747</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43747</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>500</v>
       </c>
       <c r="I4" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>500</v>
+      </c>
+      <c r="J4" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43748</v>
+      </c>
+      <c r="K4" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="B5" s="1">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
+        <v>43748</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1900</v>
+      </c>
+      <c r="I5" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>950</v>
+      </c>
+      <c r="J5" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43752</v>
+      </c>
+      <c r="K5" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="D6" s="1">
         <v>43746</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
+      <c r="E6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43748</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43748</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>43748</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <v>1900</v>
-      </c>
-      <c r="H6" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
       </c>
       <c r="I6" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>500</v>
+      </c>
+      <c r="J6" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43749</v>
+      </c>
+      <c r="K6" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43749</v>
+        <v>43746</v>
       </c>
       <c r="B7" s="1">
-        <v>43749</v>
+        <v>43746</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>43749</v>
+        <v>43746</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H7" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3000</v>
       </c>
       <c r="I7" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J7" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43748</v>
+      </c>
+      <c r="K7" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43747</v>
       </c>
       <c r="B8" s="1">
         <v>43747</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>43747</v>
+      </c>
       <c r="D8" s="1">
         <v>43747</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>400</v>
+      </c>
+      <c r="I8" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>400</v>
+      </c>
+      <c r="J8" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43749</v>
+      </c>
+      <c r="K8" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43748</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43749</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43748</v>
+      </c>
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
-        <v>400</v>
-      </c>
-      <c r="H8" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
+      <c r="F9" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43746</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43746</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>43746</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>500</v>
-      </c>
-      <c r="H9" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>950</v>
       </c>
       <c r="I9" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>475</v>
+      </c>
+      <c r="J9" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43753</v>
+      </c>
+      <c r="K9" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43747</v>
       </c>
@@ -792,82 +1027,103 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>43746</v>
+        <v>43747</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>120</v>
-      </c>
-      <c r="H10" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1500</v>
       </c>
       <c r="I10" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>750</v>
+      </c>
+      <c r="J10" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43749</v>
+      </c>
+      <c r="K10" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>43749</v>
       </c>
       <c r="B11" s="1">
         <v>43749</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1">
         <v>43749</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2200</v>
+      </c>
+      <c r="I11" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>1100</v>
+      </c>
+      <c r="J11" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43753</v>
+      </c>
+      <c r="K11" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43745</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>43745</v>
+      </c>
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2">
-        <v>875</v>
-      </c>
-      <c r="H11" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43749</v>
-      </c>
-      <c r="B12" s="5">
-        <v>43749</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>43749</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>950</v>
-      </c>
-      <c r="H12" s="8">
-        <f>VLOOKUP(Inventory_data[[#This Row],[service_id]],service_priority[],2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="8">
-        <f>VLOOKUP(Inventory_data[[#This Row],[location_id]],loc_priority[],2,0)</f>
-        <v>2</v>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>120</v>
+      </c>
+      <c r="I12" s="4">
+        <f>VLOOKUP(Inventory_data[[#This Row],[service_cd]],stone_units[],2,0)*Inventory_data[[#This Row],[stone_count]]</f>
+        <v>120</v>
+      </c>
+      <c r="J12" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[tat_start_date]],VLOOKUP(Inventory_data[[#This Row],[current_location]],tat_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[current_location]],weekend[],2,0),holiday[holiday_date])</f>
+        <v>43747</v>
+      </c>
+      <c r="K12" s="16">
+        <f>WORKDAY.INTL(Inventory_data[[#This Row],[intake_date]],VLOOKUP(Inventory_data[[#This Row],[intake_location]],erd_target_days[],2,0),VLOOKUP(Inventory_data[[#This Row],[intake_location]],weekend[],2,0),)</f>
+        <v>43752</v>
       </c>
     </row>
   </sheetData>
@@ -880,46 +1136,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3500</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E2" s="2">
+        <f>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</f>
+        <v>2677.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E3" s="2">
+        <f>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E4" s="2">
+        <f>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</f>
+        <v>1912.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E5" s="2">
+        <f>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</f>
+        <v>2677.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3500</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="2">
+        <f>((Table9[output_capacity]*Table9[dd_mix])*VLOOKUP("DD",stone_units[],2))+((Table9[output_capacity]*(1-Table9[dd_mix]))*VLOOKUP("DG",stone_units[],2))</f>
+        <v>2677.5</v>
       </c>
     </row>
   </sheetData>
@@ -932,44 +1266,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43824</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43825</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>